--- a/Resources/files/import/users.xlsx
+++ b/Resources/files/import/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VickiAdams\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Dev\var\www\html\glowt4\www\modules\AEGIS\Resources\files\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65455A16-970E-402C-B140-3B31D730816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB30720-2ACC-4B54-B2D4-AE2412E78218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="0" windowWidth="19920" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,25 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">USERS!$A$1:$M$142</definedName>
     <definedName name="USERS">USERS!$A$1:$M$142</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="667">
   <si>
     <t>USER-NICKNAME</t>
   </si>
@@ -2022,6 +2035,9 @@
   </si>
   <si>
     <t>AGA</t>
+  </si>
+  <si>
+    <t>tonydawson@aegisengineering.co.uk</t>
   </si>
 </sst>
 </file>
@@ -2093,12 +2109,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2118,7 +2135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2440,19 +2457,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="6" max="6" width="42.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
@@ -2532,7 +2549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>549</v>
       </c>
@@ -2571,7 +2588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>617</v>
       </c>
@@ -2610,7 +2627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>393</v>
       </c>
@@ -2649,7 +2666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>125</v>
       </c>
@@ -2688,7 +2705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>452</v>
       </c>
@@ -2727,7 +2744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>316</v>
       </c>
@@ -2766,7 +2783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -2805,7 +2822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>405</v>
       </c>
@@ -2844,7 +2861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>622</v>
       </c>
@@ -2883,7 +2900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>212</v>
       </c>
@@ -2922,7 +2939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -2961,7 +2978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>204</v>
       </c>
@@ -3039,7 +3056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>281</v>
       </c>
@@ -3078,7 +3095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>365</v>
       </c>
@@ -3117,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>430</v>
       </c>
@@ -3156,7 +3173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>473</v>
       </c>
@@ -3195,7 +3212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>255</v>
       </c>
@@ -3234,7 +3251,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>591</v>
       </c>
@@ -3273,7 +3290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>531</v>
       </c>
@@ -3312,7 +3329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>627</v>
       </c>
@@ -3351,7 +3368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>552</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -3429,7 +3446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>85</v>
       </c>
@@ -3468,7 +3485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3507,7 +3524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>496</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>448</v>
       </c>
@@ -3585,7 +3602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>561</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>544</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>635</v>
       </c>
@@ -3702,7 +3719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>181</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>226</v>
       </c>
@@ -3780,7 +3797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>167</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>482</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>356</v>
       </c>
@@ -3936,7 +3953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -3975,7 +3992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>163</v>
       </c>
@@ -4014,7 +4031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>106</v>
       </c>
@@ -4053,7 +4070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>245</v>
       </c>
@@ -4092,7 +4109,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>523</v>
       </c>
@@ -4131,7 +4148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>196</v>
       </c>
@@ -4170,7 +4187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>333</v>
       </c>
@@ -4209,7 +4226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
@@ -4248,7 +4265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>378</v>
       </c>
@@ -4287,7 +4304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>264</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>208</v>
       </c>
@@ -4365,7 +4382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>346</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -4443,7 +4460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>583</v>
       </c>
@@ -4482,7 +4499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>342</v>
       </c>
@@ -4521,7 +4538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>501</v>
       </c>
@@ -4560,7 +4577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>568</v>
       </c>
@@ -4599,7 +4616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>573</v>
       </c>
@@ -4638,7 +4655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>360</v>
       </c>
@@ -4677,7 +4694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>420</v>
       </c>
@@ -4716,7 +4733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>128</v>
       </c>
@@ -4755,7 +4772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>410</v>
       </c>
@@ -4794,7 +4811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>136</v>
       </c>
@@ -4833,7 +4850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>120</v>
       </c>
@@ -4872,7 +4889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>40</v>
       </c>
@@ -4911,7 +4928,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>273</v>
       </c>
@@ -4950,7 +4967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>348</v>
       </c>
@@ -4989,7 +5006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>492</v>
       </c>
@@ -5028,7 +5045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
@@ -5067,7 +5084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -5106,7 +5123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>596</v>
       </c>
@@ -5145,7 +5162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>329</v>
       </c>
@@ -5184,7 +5201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>487</v>
       </c>
@@ -5223,7 +5240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>636</v>
       </c>
@@ -5262,7 +5279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>513</v>
       </c>
@@ -5301,7 +5318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>301</v>
       </c>
@@ -5340,7 +5357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>319</v>
       </c>
@@ -5379,7 +5396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>301</v>
       </c>
@@ -5418,7 +5435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>368</v>
       </c>
@@ -5457,7 +5474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>259</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>435</v>
       </c>
@@ -5535,7 +5552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>526</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>60</v>
       </c>
@@ -5613,7 +5630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>111</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>291</v>
       </c>
@@ -5691,7 +5708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>216</v>
       </c>
@@ -5730,7 +5747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>337</v>
       </c>
@@ -5769,7 +5786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>466</v>
       </c>
@@ -5808,7 +5825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>470</v>
       </c>
@@ -5847,7 +5864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>640</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>642</v>
       </c>
@@ -5925,7 +5942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>13</v>
       </c>
@@ -5964,7 +5981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>556</v>
       </c>
@@ -6003,7 +6020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>286</v>
       </c>
@@ -6042,7 +6059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>311</v>
       </c>
@@ -6081,7 +6098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>443</v>
       </c>
@@ -6120,7 +6137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>578</v>
       </c>
@@ -6159,7 +6176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>250</v>
       </c>
@@ -6198,7 +6215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>200</v>
       </c>
@@ -6237,7 +6254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>278</v>
       </c>
@@ -6276,7 +6293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>539</v>
       </c>
@@ -6315,7 +6332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>415</v>
       </c>
@@ -6393,7 +6410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>116</v>
       </c>
@@ -6432,7 +6449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>269</v>
       </c>
@@ -6471,7 +6488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>45</v>
       </c>
@@ -6510,7 +6527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>241</v>
       </c>
@@ -6549,7 +6566,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>506</v>
       </c>
@@ -6588,7 +6605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>221</v>
       </c>
@@ -6627,7 +6644,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>177</v>
       </c>
@@ -6666,7 +6683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>388</v>
       </c>
@@ -6705,7 +6722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>461</v>
       </c>
@@ -6744,7 +6761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>646</v>
       </c>
@@ -6783,7 +6800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>132</v>
       </c>
@@ -6822,7 +6839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>172</v>
       </c>
@@ -6861,7 +6878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
@@ -6900,7 +6917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>510</v>
       </c>
@@ -6939,7 +6956,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>296</v>
       </c>
@@ -6978,7 +6995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>306</v>
       </c>
@@ -7017,7 +7034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>478</v>
       </c>
@@ -7056,7 +7073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>518</v>
       </c>
@@ -7095,7 +7112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>186</v>
       </c>
@@ -7134,7 +7151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>373</v>
       </c>
@@ -7173,7 +7190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>383</v>
       </c>
@@ -7212,7 +7229,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>236</v>
       </c>
@@ -7251,7 +7268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>352</v>
       </c>
@@ -7290,7 +7307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>439</v>
       </c>
@@ -7329,7 +7346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>536</v>
       </c>
@@ -7368,7 +7385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>153</v>
       </c>
@@ -7407,7 +7424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>652</v>
       </c>
@@ -7446,7 +7463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>565</v>
       </c>
@@ -7485,7 +7502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>600</v>
       </c>
@@ -7524,7 +7541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>587</v>
       </c>
@@ -7563,7 +7580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>191</v>
       </c>
@@ -7602,7 +7619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>324</v>
       </c>
@@ -7641,7 +7658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>605</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>657</v>
       </c>
@@ -7696,8 +7713,8 @@
       <c r="E135" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>161</v>
+      <c r="F135" s="5" t="s">
+        <v>666</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>658</v>
@@ -7719,7 +7736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>65</v>
       </c>
@@ -7758,7 +7775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>397</v>
       </c>
@@ -7797,7 +7814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>456</v>
       </c>
@@ -7836,7 +7853,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>158</v>
       </c>
@@ -7875,7 +7892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>401</v>
       </c>
@@ -7914,7 +7931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>96</v>
       </c>
@@ -7953,7 +7970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>425</v>
       </c>
@@ -8000,6 +8017,7 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{70A86904-A858-47D1-A83B-B6CBCB7AFC0C}"/>
+    <hyperlink ref="F135" r:id="rId2" xr:uid="{FA6097DD-7DE4-4857-99C5-B821FEA2384A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
